--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Duval-Jouve/Joseph_Duval-Jouve.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Duval-Jouve/Joseph_Duval-Jouve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Duval-Jouve, né le 7 août 1810 à Boissy-Lamberville (Eure) et mort le 25 août 1883 à Montpellier, est un botaniste et agrostologue français. Il est le père de l'histologiste Mathias-Marie Duval (1844-1907).
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des débuts au collège d'Arles en 1827, la nomination en 1829 à celui de Castellane permet au jeune Duval d'effectuer les recherches géologiques qui font l'objet en 1841 de la première publication du fonctionnaire qui, transféré à Grasse en 1832 et devenu en 1834 le gendre de Jouve, le principal de l'établissement, adjoint désormais ce patronyme au sien. Le licencié ès lettres enseigne la philosophie dont relève le "Traité de logique" de 1844 réédité en 1855. Après avoir succédé en 1846 à son beau-père à la tête du collège de Grasse, Duval-Jouve est nommé inspecteur d'académie à Alger en 1852. Muté à Strasbourg dans le cadre de l'important mouvement administratif de 1854 consécutif à la suppression des recteurs départementaux, il vient terminer sa carrière à Montpellier de 1868 à 1873. La retraite permet au serviteur zélé des régimes successifs de donner libre cours à un anticléricalisme jusque-là contenu. Conseiller municipal républicain en 1878 et réélu en 1881, il est surtout l'auteur de trois ouvrages sur la ville. Si "Les Noms de rues de Montpellier. Étude critique et historique" (1877) et l'"Histoire populaire de Montpellier" (1878) ne sont guère que des pamphlets, les deux volumes de "Montpellier pendant la Révolution" (1879-1881) sont fondés sur une information solide qui, au-delà des partis pris, propose pour les années 1789-1800, une chronologie minutieuse qui a justifié la réédition de 1974.
-Le 4 avril 1865 il était devenu membre de la Société des sciences naturelles de Strasbourg[1].
+Le 4 avril 1865 il était devenu membre de la Société des sciences naturelles de Strasbourg.
 Une partie de son herbier a été donnée à la faculté des sciences de Montpellier.
 Il s'est spécialisé dans la recherche sur la famille des Poaceae et du genre Equisetum. Le genre de plante Jouvea est nommé en son honneur.
 </t>
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1841 : Bélemnites : des terrains crétacés inférieurs des environs de Castellane (Basses-Alpes). Ed. Masson. 80 pp.
 1845 : Études sur le pétiole des fougères. Ed. V. Edler. 20 pp.
@@ -594,7 +610,9 @@
           <t>Étude biographique et historiographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Roland Andréani, "Un historien montpelliérain militant au début de la 3e République: Duval-Jouve" dans "Hommage à Jean Combes (1903-1989). Études languedociennes offertes par ses anciens élèves, collègues et amis", Société archéologique de Montpellier, 1991, p. 277-282.</t>
         </is>
